--- a/Code/Results/Cases/Case_5_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_153/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.582515631607407</v>
+        <v>1.388317276604681</v>
       </c>
       <c r="C2">
-        <v>0.1259899154503188</v>
+        <v>0.04981286588794376</v>
       </c>
       <c r="D2">
-        <v>0.08782492186144797</v>
+        <v>0.1577979911730782</v>
       </c>
       <c r="E2">
-        <v>0.02940312630288844</v>
+        <v>0.07019828564042463</v>
       </c>
       <c r="F2">
-        <v>2.000460133616201</v>
+        <v>2.625751773257235</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.406973942409422</v>
+        <v>0.9305988667144049</v>
       </c>
       <c r="L2">
-        <v>0.1465615171929642</v>
+        <v>0.1963251175074276</v>
       </c>
       <c r="M2">
-        <v>0.3005186090016565</v>
+        <v>0.2988679867042947</v>
       </c>
       <c r="N2">
-        <v>2.337806545705618</v>
+        <v>3.740235092271703</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.396077795426805</v>
+        <v>1.347845959518111</v>
       </c>
       <c r="C3">
-        <v>0.1108239979910053</v>
+        <v>0.04514965112367975</v>
       </c>
       <c r="D3">
-        <v>0.09001218557875834</v>
+        <v>0.1581448829327385</v>
       </c>
       <c r="E3">
-        <v>0.02894200582762263</v>
+        <v>0.07033141536890586</v>
       </c>
       <c r="F3">
-        <v>1.87817460994323</v>
+        <v>2.602581907047437</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.227313380912051</v>
+        <v>0.8883912467549067</v>
       </c>
       <c r="L3">
-        <v>0.1332700618514195</v>
+        <v>0.1940149243992479</v>
       </c>
       <c r="M3">
-        <v>0.2670112108059932</v>
+        <v>0.2919269069122734</v>
       </c>
       <c r="N3">
-        <v>2.334415887129467</v>
+        <v>3.742305222211286</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.283645903019959</v>
+        <v>1.323817732215304</v>
       </c>
       <c r="C4">
-        <v>0.101585575658774</v>
+        <v>0.04226370416463965</v>
       </c>
       <c r="D4">
-        <v>0.09136833851562898</v>
+        <v>0.1583614021332123</v>
       </c>
       <c r="E4">
-        <v>0.02868455369099276</v>
+        <v>0.07043031795492904</v>
       </c>
       <c r="F4">
-        <v>1.805921262989912</v>
+        <v>2.589425679108871</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.118737071603533</v>
+        <v>0.8630588559734633</v>
       </c>
       <c r="L4">
-        <v>0.1253080548595804</v>
+        <v>0.1926930427625848</v>
       </c>
       <c r="M4">
-        <v>0.2468348881616755</v>
+        <v>0.2878346556716167</v>
       </c>
       <c r="N4">
-        <v>2.334400764959071</v>
+        <v>3.74434281467633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.238291573576277</v>
+        <v>1.314232525789095</v>
       </c>
       <c r="C5">
-        <v>0.09783508300377264</v>
+        <v>0.04108186791624746</v>
       </c>
       <c r="D5">
-        <v>0.09192444994566351</v>
+        <v>0.1584505233951292</v>
       </c>
       <c r="E5">
-        <v>0.02858587006135593</v>
+        <v>0.07047494563249934</v>
       </c>
       <c r="F5">
-        <v>1.777138025889343</v>
+        <v>2.584333303512096</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.074879054398792</v>
+        <v>0.8528821651779026</v>
       </c>
       <c r="L5">
-        <v>0.1221095981208933</v>
+        <v>0.1921786667684984</v>
       </c>
       <c r="M5">
-        <v>0.2387034988223817</v>
+        <v>0.2862096803863245</v>
       </c>
       <c r="N5">
-        <v>2.334889957990057</v>
+        <v>3.745365747169942</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.230787039611585</v>
+        <v>1.312653380257643</v>
       </c>
       <c r="C6">
-        <v>0.09721305821825865</v>
+        <v>0.04088527297363953</v>
       </c>
       <c r="D6">
-        <v>0.09201700587051143</v>
+        <v>0.1584653755781078</v>
       </c>
       <c r="E6">
-        <v>0.02856985366530829</v>
+        <v>0.07048261745186224</v>
       </c>
       <c r="F6">
-        <v>1.772397059172135</v>
+        <v>2.583503953079244</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.067618516446487</v>
+        <v>0.8512011738118304</v>
       </c>
       <c r="L6">
-        <v>0.1215811731585177</v>
+        <v>0.1920947232103103</v>
       </c>
       <c r="M6">
-        <v>0.2373585015538211</v>
+        <v>0.2859424305853508</v>
       </c>
       <c r="N6">
-        <v>2.33500042659972</v>
+        <v>3.745547232352408</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.28303243038161</v>
+        <v>1.323687626740679</v>
       </c>
       <c r="C7">
-        <v>0.1015349429394803</v>
+        <v>0.04224778905044957</v>
       </c>
       <c r="D7">
-        <v>0.0913758241791065</v>
+        <v>0.1583626004580125</v>
       </c>
       <c r="E7">
-        <v>0.02868319787175988</v>
+        <v>0.07043090229926818</v>
       </c>
       <c r="F7">
-        <v>1.805530472579008</v>
+        <v>2.589355913093144</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.118144079334741</v>
+        <v>0.862921016796264</v>
       </c>
       <c r="L7">
-        <v>0.1252647375774032</v>
+        <v>0.1926860072924157</v>
       </c>
       <c r="M7">
-        <v>0.2467248702884426</v>
+        <v>0.2878125679921517</v>
       </c>
       <c r="N7">
-        <v>2.334405387648673</v>
+        <v>3.744355830705857</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.517776379579885</v>
+        <v>1.374192259284939</v>
       </c>
       <c r="C8">
-        <v>0.1207427930088443</v>
+        <v>0.04820965574612046</v>
       </c>
       <c r="D8">
-        <v>0.08857645416517279</v>
+        <v>0.1579168683521264</v>
       </c>
       <c r="E8">
-        <v>0.02923866118737806</v>
+        <v>0.07024063242698642</v>
       </c>
       <c r="F8">
-        <v>1.957676695409646</v>
+        <v>2.617540552107769</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.344636180498867</v>
+        <v>0.9159244858464319</v>
       </c>
       <c r="L8">
-        <v>0.1419348785844505</v>
+        <v>0.1955085235183276</v>
       </c>
       <c r="M8">
-        <v>0.2888769860894413</v>
+        <v>0.2964395004089369</v>
       </c>
       <c r="N8">
-        <v>2.336193291325515</v>
+        <v>3.740789685325154</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.996809398059384</v>
+        <v>1.479757675600297</v>
       </c>
       <c r="C9">
-        <v>0.1592025069181062</v>
+        <v>0.05972461984342203</v>
       </c>
       <c r="D9">
-        <v>0.08318399659770837</v>
+        <v>0.1570706872285257</v>
       </c>
       <c r="E9">
-        <v>0.03054278464770555</v>
+        <v>0.07000330739512428</v>
       </c>
       <c r="F9">
-        <v>2.28100526265564</v>
+        <v>2.681316881054997</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.804964938014734</v>
+        <v>1.024507976926998</v>
       </c>
       <c r="L9">
-        <v>0.1763961917127119</v>
+        <v>0.201809773882232</v>
       </c>
       <c r="M9">
-        <v>0.3751470244809525</v>
+        <v>0.314703810579104</v>
       </c>
       <c r="N9">
-        <v>2.357291830173665</v>
+        <v>3.739887086964032</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.363979851060378</v>
+        <v>1.561318408347347</v>
       </c>
       <c r="C10">
-        <v>0.1882653075664535</v>
+        <v>0.0680834397310548</v>
       </c>
       <c r="D10">
-        <v>0.07927086259072258</v>
+        <v>0.1564658558215246</v>
       </c>
       <c r="E10">
-        <v>0.03164885059188549</v>
+        <v>0.06991127517283147</v>
       </c>
       <c r="F10">
-        <v>2.537612540457815</v>
+        <v>2.733388172271404</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.156710604323337</v>
+        <v>1.107147313520244</v>
       </c>
       <c r="L10">
-        <v>0.2030879641589678</v>
+        <v>0.2069072007139994</v>
       </c>
       <c r="M10">
-        <v>0.4414287278036184</v>
+        <v>0.3289473801535507</v>
       </c>
       <c r="N10">
-        <v>2.385339288966634</v>
+        <v>3.742951321020342</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.535270960656817</v>
+        <v>1.599297271945261</v>
       </c>
       <c r="C11">
-        <v>0.2017428612185483</v>
+        <v>0.07186548398264847</v>
       </c>
       <c r="D11">
-        <v>0.07749895892645497</v>
+        <v>0.1561943312605623</v>
       </c>
       <c r="E11">
-        <v>0.0321883360526467</v>
+        <v>0.0698871926379816</v>
       </c>
       <c r="F11">
-        <v>2.659441630401901</v>
+        <v>2.758215998717247</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.320584503067408</v>
+        <v>1.145371365710162</v>
       </c>
       <c r="L11">
-        <v>0.2156014935743116</v>
+        <v>0.20932797363524</v>
       </c>
       <c r="M11">
-        <v>0.4723848205261305</v>
+        <v>0.3356071743520559</v>
       </c>
       <c r="N11">
-        <v>2.401277930565954</v>
+        <v>3.745158021733431</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.600835422195587</v>
+        <v>1.613805177091479</v>
       </c>
       <c r="C12">
-        <v>0.2068909574499287</v>
+        <v>0.07329480452816028</v>
       </c>
       <c r="D12">
-        <v>0.07682898297781016</v>
+        <v>0.1560920308511262</v>
       </c>
       <c r="E12">
-        <v>0.03239823545655796</v>
+        <v>0.06988062239071802</v>
       </c>
       <c r="F12">
-        <v>2.706396713088594</v>
+        <v>2.767782036644519</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.383279605704075</v>
+        <v>1.159936972332872</v>
       </c>
       <c r="L12">
-        <v>0.2204001371756021</v>
+        <v>0.2102593172547387</v>
       </c>
       <c r="M12">
-        <v>0.4842387599607605</v>
+        <v>0.3381550330237673</v>
       </c>
       <c r="N12">
-        <v>2.407813346442623</v>
+        <v>3.746110755368392</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.586682314200402</v>
+        <v>1.610675028672347</v>
       </c>
       <c r="C13">
-        <v>0.2057801176145375</v>
+        <v>0.07298710059392022</v>
       </c>
       <c r="D13">
-        <v>0.07697323232532582</v>
+        <v>0.1561140399426968</v>
       </c>
       <c r="E13">
-        <v>0.03235277393097746</v>
+        <v>0.06988192415659888</v>
       </c>
       <c r="F13">
-        <v>2.696246077975673</v>
+        <v>2.765714508011769</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.369747212499249</v>
+        <v>1.15679595758084</v>
       </c>
       <c r="L13">
-        <v>0.2193638799672897</v>
+        <v>0.2100580843188879</v>
       </c>
       <c r="M13">
-        <v>0.4816796811081616</v>
+        <v>0.3376051522638193</v>
       </c>
       <c r="N13">
-        <v>2.406382872487342</v>
+        <v>3.745900355196966</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.540650423150282</v>
+        <v>1.600488317540339</v>
       </c>
       <c r="C14">
-        <v>0.2021654615036113</v>
+        <v>0.07198313185689642</v>
       </c>
       <c r="D14">
-        <v>0.07744382044320108</v>
+        <v>0.1561859045217835</v>
       </c>
       <c r="E14">
-        <v>0.0322054898777786</v>
+        <v>0.06988660105349886</v>
       </c>
       <c r="F14">
-        <v>2.663287660886979</v>
+        <v>2.758999708277571</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.325729134855152</v>
+        <v>1.146567861948938</v>
       </c>
       <c r="L14">
-        <v>0.215995037071437</v>
+        <v>0.2094043022798076</v>
       </c>
       <c r="M14">
-        <v>0.4733573181462916</v>
+        <v>0.3358162683029846</v>
       </c>
       <c r="N14">
-        <v>2.401805326469258</v>
+        <v>3.745234055436669</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.512548492437361</v>
+        <v>1.59426509219611</v>
       </c>
       <c r="C15">
-        <v>0.1999574049873161</v>
+        <v>0.0713678022483748</v>
       </c>
       <c r="D15">
-        <v>0.07773219505349793</v>
+        <v>0.156229991380691</v>
       </c>
       <c r="E15">
-        <v>0.03211601649840645</v>
+        <v>0.06988979754584967</v>
       </c>
       <c r="F15">
-        <v>2.643209374432445</v>
+        <v>2.754908102541805</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.298852734116736</v>
+        <v>1.140314714856714</v>
       </c>
       <c r="L15">
-        <v>0.2139395514489735</v>
+        <v>0.2090057494784787</v>
       </c>
       <c r="M15">
-        <v>0.4682772603179899</v>
+        <v>0.3347239035558474</v>
       </c>
       <c r="N15">
-        <v>2.399067876256225</v>
+        <v>3.744841184867596</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.352878614948281</v>
+        <v>1.55885404540652</v>
       </c>
       <c r="C16">
-        <v>0.1873903082303912</v>
+        <v>0.06783587003471325</v>
       </c>
       <c r="D16">
-        <v>0.07938681082198684</v>
+        <v>0.1564836733577142</v>
       </c>
       <c r="E16">
-        <v>0.03161435696335424</v>
+        <v>0.06991320618937458</v>
       </c>
       <c r="F16">
-        <v>2.529760615758164</v>
+        <v>2.731788587368868</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.146085787917883</v>
+        <v>1.104662000445302</v>
       </c>
       <c r="L16">
-        <v>0.2022782005574584</v>
+        <v>0.2067510478909327</v>
       </c>
       <c r="M16">
-        <v>0.4394231794099142</v>
+        <v>0.3285157762293451</v>
       </c>
       <c r="N16">
-        <v>2.384365182116767</v>
+        <v>3.742823482351483</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.256077554271428</v>
+        <v>1.537355068878242</v>
       </c>
       <c r="C17">
-        <v>0.1797516553887704</v>
+        <v>0.0656639691968337</v>
       </c>
       <c r="D17">
-        <v>0.08040384070751383</v>
+        <v>0.1566402252233132</v>
       </c>
       <c r="E17">
-        <v>0.03131617164029699</v>
+        <v>0.06993211570713953</v>
       </c>
       <c r="F17">
-        <v>2.46152885966923</v>
+        <v>2.717897792047296</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.053414800838254</v>
+        <v>1.082952005912006</v>
       </c>
       <c r="L17">
-        <v>0.1952239659734545</v>
+        <v>0.2053939620204233</v>
       </c>
       <c r="M17">
-        <v>0.4219389251484387</v>
+        <v>0.3247534821263187</v>
       </c>
       <c r="N17">
-        <v>2.37618885679602</v>
+        <v>3.741794017593776</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.200795721439874</v>
+        <v>1.525071918107585</v>
       </c>
       <c r="C18">
-        <v>0.1753817736138359</v>
+        <v>0.06441282201663512</v>
       </c>
       <c r="D18">
-        <v>0.08098959169101594</v>
+        <v>0.1567306100855834</v>
       </c>
       <c r="E18">
-        <v>0.03114805785158836</v>
+        <v>0.06994466628778007</v>
       </c>
       <c r="F18">
-        <v>2.422757744977062</v>
+        <v>2.710015489341146</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.00047098455093</v>
+        <v>1.07052436894395</v>
       </c>
       <c r="L18">
-        <v>0.1912010708764456</v>
+        <v>0.2046229964754644</v>
       </c>
       <c r="M18">
-        <v>0.4119570989006078</v>
+        <v>0.3226064822985606</v>
       </c>
       <c r="N18">
-        <v>2.371782541533094</v>
+        <v>3.741278384042687</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.182143670181915</v>
+        <v>1.520927219525504</v>
       </c>
       <c r="C19">
-        <v>0.1739060560071692</v>
+        <v>0.06398887165376266</v>
       </c>
       <c r="D19">
-        <v>0.08118805656711547</v>
+        <v>0.1567612713076283</v>
       </c>
       <c r="E19">
-        <v>0.03109170933291061</v>
+        <v>0.06994920350917333</v>
       </c>
       <c r="F19">
-        <v>2.409709380544342</v>
+        <v>2.70736509955735</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.982604195449028</v>
+        <v>1.066326775262411</v>
       </c>
       <c r="L19">
-        <v>0.1898447235997907</v>
+        <v>0.2043636088723133</v>
       </c>
       <c r="M19">
-        <v>0.4085897875369184</v>
+        <v>0.3218824597948924</v>
       </c>
       <c r="N19">
-        <v>2.370340336410692</v>
+        <v>3.741116929230259</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.266340648479058</v>
+        <v>1.539635133361628</v>
       </c>
       <c r="C20">
-        <v>0.1805623014717952</v>
+        <v>0.06589537063551631</v>
       </c>
       <c r="D20">
-        <v>0.08029549643521428</v>
+        <v>0.1566235247845302</v>
       </c>
       <c r="E20">
-        <v>0.03134755999592009</v>
+        <v>0.06992992952792676</v>
       </c>
       <c r="F20">
-        <v>2.468742581331966</v>
+        <v>2.719365382071416</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.063242143372975</v>
+        <v>1.085256924740634</v>
       </c>
       <c r="L20">
-        <v>0.1959712831532698</v>
+        <v>0.2055374332066862</v>
       </c>
       <c r="M20">
-        <v>0.4237923173840628</v>
+        <v>0.3251522281362966</v>
       </c>
       <c r="N20">
-        <v>2.377028260781714</v>
+        <v>3.741895688121872</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.554151361648621</v>
+        <v>1.603476977481137</v>
       </c>
       <c r="C21">
-        <v>0.2032259034574935</v>
+        <v>0.07227809872782132</v>
       </c>
       <c r="D21">
-        <v>0.07730557139803551</v>
+        <v>0.1561647820377381</v>
       </c>
       <c r="E21">
-        <v>0.03224859532918423</v>
+        <v>0.06988515821152497</v>
       </c>
       <c r="F21">
-        <v>2.672945316084963</v>
+        <v>2.760967546818762</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.338640238160764</v>
+        <v>1.149569630164279</v>
       </c>
       <c r="L21">
-        <v>0.2169828620550049</v>
+        <v>0.2095959363887516</v>
       </c>
       <c r="M21">
-        <v>0.4757980931503383</v>
+        <v>0.3363410028262805</v>
       </c>
       <c r="N21">
-        <v>2.403135936522204</v>
+        <v>3.745426583808296</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.746380977991521</v>
+        <v>1.645936567904585</v>
       </c>
       <c r="C22">
-        <v>0.2183010179426077</v>
+        <v>0.07643296182924075</v>
       </c>
       <c r="D22">
-        <v>0.07535726354017847</v>
+        <v>0.1558679985000175</v>
       </c>
       <c r="E22">
-        <v>0.03287036778855601</v>
+        <v>0.06987075313214852</v>
       </c>
       <c r="F22">
-        <v>2.811237043163118</v>
+        <v>2.78911465389325</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.522402566191346</v>
+        <v>1.192132167361478</v>
       </c>
       <c r="L22">
-        <v>0.2310686969135816</v>
+        <v>0.2123337879645248</v>
       </c>
       <c r="M22">
-        <v>0.5105621767677562</v>
+        <v>0.3438047122479944</v>
       </c>
       <c r="N22">
-        <v>2.423135155122736</v>
+        <v>3.7484169094609</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.643375427108765</v>
+        <v>1.623207775367632</v>
       </c>
       <c r="C23">
-        <v>0.2102283591087684</v>
+        <v>0.07421692742076402</v>
       </c>
       <c r="D23">
-        <v>0.07639664033111071</v>
+        <v>0.1560261200400852</v>
       </c>
       <c r="E23">
-        <v>0.0325353694310575</v>
+        <v>0.06987708471121934</v>
       </c>
       <c r="F23">
-        <v>2.736954321682248</v>
+        <v>2.774004283645354</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.423949705857609</v>
+        <v>1.169367118129486</v>
       </c>
       <c r="L23">
-        <v>0.2235160953607647</v>
+        <v>0.2108647346633461</v>
       </c>
       <c r="M23">
-        <v>0.4919313019110803</v>
+        <v>0.3398073520782887</v>
       </c>
       <c r="N23">
-        <v>2.412177241781876</v>
+        <v>3.746758374091371</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.261699556393296</v>
+        <v>1.538604076693446</v>
       </c>
       <c r="C24">
-        <v>0.1801957414027129</v>
+        <v>0.06579076181574806</v>
       </c>
       <c r="D24">
-        <v>0.0803444756067897</v>
+        <v>0.1566310738649452</v>
       </c>
       <c r="E24">
-        <v>0.0313333590173972</v>
+        <v>0.0699309126685268</v>
       </c>
       <c r="F24">
-        <v>2.465479843256276</v>
+        <v>2.718701561623433</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.058798167823738</v>
+        <v>1.084214703604516</v>
       </c>
       <c r="L24">
-        <v>0.1956333197647098</v>
+        <v>0.2054725410986293</v>
       </c>
       <c r="M24">
-        <v>0.422954181575804</v>
+        <v>0.3249719052498961</v>
       </c>
       <c r="N24">
-        <v>2.376647852526474</v>
+        <v>3.741849485464172</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.864842190618361</v>
+        <v>1.450498390351697</v>
       </c>
       <c r="C25">
-        <v>0.1486817671324161</v>
+        <v>0.05662774336221332</v>
       </c>
       <c r="D25">
-        <v>0.08463348112913405</v>
+        <v>0.1572966310018504</v>
       </c>
       <c r="E25">
-        <v>0.03016532237973024</v>
+        <v>0.07005301959849142</v>
       </c>
       <c r="F25">
-        <v>2.190488216371435</v>
+        <v>2.663150046952779</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.678342163129543</v>
+        <v>0.994632822831278</v>
       </c>
       <c r="L25">
-        <v>0.1668551563325806</v>
+        <v>0.2000230065989754</v>
       </c>
       <c r="M25">
-        <v>0.3513539017126774</v>
+        <v>0.3096182602905984</v>
       </c>
       <c r="N25">
-        <v>2.349523049067741</v>
+        <v>3.739477753214175</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_153/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.388317276604681</v>
+        <v>1.582515631607436</v>
       </c>
       <c r="C2">
-        <v>0.04981286588794376</v>
+        <v>0.1259899154504467</v>
       </c>
       <c r="D2">
-        <v>0.1577979911730782</v>
+        <v>0.08782492186136981</v>
       </c>
       <c r="E2">
-        <v>0.07019828564042463</v>
+        <v>0.02940312630288844</v>
       </c>
       <c r="F2">
-        <v>2.625751773257235</v>
+        <v>2.000460133616187</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9305988667144049</v>
+        <v>1.406973942409394</v>
       </c>
       <c r="L2">
-        <v>0.1963251175074276</v>
+        <v>0.1465615171929926</v>
       </c>
       <c r="M2">
-        <v>0.2988679867042947</v>
+        <v>0.3005186090016707</v>
       </c>
       <c r="N2">
-        <v>3.740235092271703</v>
+        <v>2.337806545705661</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.347845959518111</v>
+        <v>1.396077795426777</v>
       </c>
       <c r="C3">
-        <v>0.04514965112367975</v>
+        <v>0.1108239979910053</v>
       </c>
       <c r="D3">
-        <v>0.1581448829327385</v>
+        <v>0.09001218557884272</v>
       </c>
       <c r="E3">
-        <v>0.07033141536890586</v>
+        <v>0.02894200582762352</v>
       </c>
       <c r="F3">
-        <v>2.602581907047437</v>
+        <v>1.878174609943216</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8883912467549067</v>
+        <v>1.227313380911966</v>
       </c>
       <c r="L3">
-        <v>0.1940149243992479</v>
+        <v>0.1332700618514124</v>
       </c>
       <c r="M3">
-        <v>0.2919269069122734</v>
+        <v>0.2670112108060003</v>
       </c>
       <c r="N3">
-        <v>3.742305222211286</v>
+        <v>2.334415887129424</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.323817732215304</v>
+        <v>1.283645903019902</v>
       </c>
       <c r="C4">
-        <v>0.04226370416463965</v>
+        <v>0.1015855756586603</v>
       </c>
       <c r="D4">
-        <v>0.1583614021332123</v>
+        <v>0.09136833851584214</v>
       </c>
       <c r="E4">
-        <v>0.07043031795492904</v>
+        <v>0.02868455369101763</v>
       </c>
       <c r="F4">
-        <v>2.589425679108871</v>
+        <v>1.80592126298987</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8630588559734633</v>
+        <v>1.118737071603562</v>
       </c>
       <c r="L4">
-        <v>0.1926930427625848</v>
+        <v>0.125308054859552</v>
       </c>
       <c r="M4">
-        <v>0.2878346556716167</v>
+        <v>0.2468348881616791</v>
       </c>
       <c r="N4">
-        <v>3.74434281467633</v>
+        <v>2.334400764958971</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.314232525789095</v>
+        <v>1.23829157357622</v>
       </c>
       <c r="C5">
-        <v>0.04108186791624746</v>
+        <v>0.09783508300373001</v>
       </c>
       <c r="D5">
-        <v>0.1584505233951292</v>
+        <v>0.09192444994567595</v>
       </c>
       <c r="E5">
-        <v>0.07047494563249934</v>
+        <v>0.02858587006135593</v>
       </c>
       <c r="F5">
-        <v>2.584333303512096</v>
+        <v>1.777138025889343</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8528821651779026</v>
+        <v>1.074879054398849</v>
       </c>
       <c r="L5">
-        <v>0.1921786667684984</v>
+        <v>0.1221095981208151</v>
       </c>
       <c r="M5">
-        <v>0.2862096803863245</v>
+        <v>0.238703498822403</v>
       </c>
       <c r="N5">
-        <v>3.745365747169942</v>
+        <v>2.334889957990072</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.312653380257643</v>
+        <v>1.230787039611499</v>
       </c>
       <c r="C6">
-        <v>0.04088527297363953</v>
+        <v>0.09721305821837234</v>
       </c>
       <c r="D6">
-        <v>0.1584653755781078</v>
+        <v>0.09201700587051054</v>
       </c>
       <c r="E6">
-        <v>0.07048261745186224</v>
+        <v>0.02856985366530829</v>
       </c>
       <c r="F6">
-        <v>2.583503953079244</v>
+        <v>1.772397059172121</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8512011738118304</v>
+        <v>1.067618516446544</v>
       </c>
       <c r="L6">
-        <v>0.1920947232103103</v>
+        <v>0.1215811731585603</v>
       </c>
       <c r="M6">
-        <v>0.2859424305853508</v>
+        <v>0.237358501553814</v>
       </c>
       <c r="N6">
-        <v>3.745547232352408</v>
+        <v>2.335000426599677</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.323687626740679</v>
+        <v>1.283032430381638</v>
       </c>
       <c r="C7">
-        <v>0.04224778905044957</v>
+        <v>0.101534942939125</v>
       </c>
       <c r="D7">
-        <v>0.1583626004580125</v>
+        <v>0.09137582417931078</v>
       </c>
       <c r="E7">
-        <v>0.07043090229926818</v>
+        <v>0.02868319787175633</v>
       </c>
       <c r="F7">
-        <v>2.589355913093144</v>
+        <v>1.80553047257898</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.862921016796264</v>
+        <v>1.118144079334684</v>
       </c>
       <c r="L7">
-        <v>0.1926860072924157</v>
+        <v>0.1252647375774032</v>
       </c>
       <c r="M7">
-        <v>0.2878125679921517</v>
+        <v>0.2467248702884355</v>
       </c>
       <c r="N7">
-        <v>3.744355830705857</v>
+        <v>2.334405387648729</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.374192259284939</v>
+        <v>1.517776379579914</v>
       </c>
       <c r="C8">
-        <v>0.04820965574612046</v>
+        <v>0.1207427930090148</v>
       </c>
       <c r="D8">
-        <v>0.1579168683521264</v>
+        <v>0.08857645416518345</v>
       </c>
       <c r="E8">
-        <v>0.07024063242698642</v>
+        <v>0.02923866118735319</v>
       </c>
       <c r="F8">
-        <v>2.617540552107769</v>
+        <v>1.957676695409646</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9159244858464319</v>
+        <v>1.344636180498867</v>
       </c>
       <c r="L8">
-        <v>0.1955085235183276</v>
+        <v>0.141934878584415</v>
       </c>
       <c r="M8">
-        <v>0.2964395004089369</v>
+        <v>0.2888769860894413</v>
       </c>
       <c r="N8">
-        <v>3.740789685325154</v>
+        <v>2.336193291325458</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.479757675600297</v>
+        <v>1.996809398059725</v>
       </c>
       <c r="C9">
-        <v>0.05972461984342203</v>
+        <v>0.1592025069181204</v>
       </c>
       <c r="D9">
-        <v>0.1570706872285257</v>
+        <v>0.0831839965977057</v>
       </c>
       <c r="E9">
-        <v>0.07000330739512428</v>
+        <v>0.03054278464770377</v>
       </c>
       <c r="F9">
-        <v>2.681316881054997</v>
+        <v>2.28100526265564</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.024507976926998</v>
+        <v>1.804964938014763</v>
       </c>
       <c r="L9">
-        <v>0.201809773882232</v>
+        <v>0.1763961917127759</v>
       </c>
       <c r="M9">
-        <v>0.314703810579104</v>
+        <v>0.3751470244809383</v>
       </c>
       <c r="N9">
-        <v>3.739887086964032</v>
+        <v>2.35729183017375</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.561318408347347</v>
+        <v>2.363979851060321</v>
       </c>
       <c r="C10">
-        <v>0.0680834397310548</v>
+        <v>0.188265307566482</v>
       </c>
       <c r="D10">
-        <v>0.1564658558215246</v>
+        <v>0.07927086259084426</v>
       </c>
       <c r="E10">
-        <v>0.06991127517283147</v>
+        <v>0.03164885059188727</v>
       </c>
       <c r="F10">
-        <v>2.733388172271404</v>
+        <v>2.537612540457744</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.107147313520244</v>
+        <v>2.156710604323422</v>
       </c>
       <c r="L10">
-        <v>0.2069072007139994</v>
+        <v>0.2030879641589962</v>
       </c>
       <c r="M10">
-        <v>0.3289473801535507</v>
+        <v>0.4414287278036113</v>
       </c>
       <c r="N10">
-        <v>3.742951321020342</v>
+        <v>2.385339288966605</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.599297271945261</v>
+        <v>2.53527096065659</v>
       </c>
       <c r="C11">
-        <v>0.07186548398264847</v>
+        <v>0.2017428612185626</v>
       </c>
       <c r="D11">
-        <v>0.1561943312605623</v>
+        <v>0.077498958926566</v>
       </c>
       <c r="E11">
-        <v>0.0698871926379816</v>
+        <v>0.03218833605264493</v>
       </c>
       <c r="F11">
-        <v>2.758215998717247</v>
+        <v>2.659441630401901</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.145371365710162</v>
+        <v>2.32058450306738</v>
       </c>
       <c r="L11">
-        <v>0.20932797363524</v>
+        <v>0.2156014935743684</v>
       </c>
       <c r="M11">
-        <v>0.3356071743520559</v>
+        <v>0.4723848205261305</v>
       </c>
       <c r="N11">
-        <v>3.745158021733431</v>
+        <v>2.401277930565925</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.613805177091479</v>
+        <v>2.600835422195701</v>
       </c>
       <c r="C12">
-        <v>0.07329480452816028</v>
+        <v>0.2068909574499571</v>
       </c>
       <c r="D12">
-        <v>0.1560920308511262</v>
+        <v>0.07682898297780305</v>
       </c>
       <c r="E12">
-        <v>0.06988062239071802</v>
+        <v>0.0323982354565544</v>
       </c>
       <c r="F12">
-        <v>2.767782036644519</v>
+        <v>2.706396713088594</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.159936972332872</v>
+        <v>2.383279605704075</v>
       </c>
       <c r="L12">
-        <v>0.2102593172547387</v>
+        <v>0.2204001371755595</v>
       </c>
       <c r="M12">
-        <v>0.3381550330237673</v>
+        <v>0.4842387599607818</v>
       </c>
       <c r="N12">
-        <v>3.746110755368392</v>
+        <v>2.407813346442566</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.610675028672347</v>
+        <v>2.586682314200402</v>
       </c>
       <c r="C13">
-        <v>0.07298710059392022</v>
+        <v>0.2057801176147791</v>
       </c>
       <c r="D13">
-        <v>0.1561140399426968</v>
+        <v>0.07697323232532671</v>
       </c>
       <c r="E13">
-        <v>0.06988192415659888</v>
+        <v>0.03235277393094194</v>
       </c>
       <c r="F13">
-        <v>2.765714508011769</v>
+        <v>2.696246077975644</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.15679595758084</v>
+        <v>2.369747212499334</v>
       </c>
       <c r="L13">
-        <v>0.2100580843188879</v>
+        <v>0.2193638799672044</v>
       </c>
       <c r="M13">
-        <v>0.3376051522638193</v>
+        <v>0.4816796811081616</v>
       </c>
       <c r="N13">
-        <v>3.745900355196966</v>
+        <v>2.406382872487342</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.600488317540339</v>
+        <v>2.540650423150282</v>
       </c>
       <c r="C14">
-        <v>0.07198313185689642</v>
+        <v>0.2021654615035686</v>
       </c>
       <c r="D14">
-        <v>0.1561859045217835</v>
+        <v>0.07744382044310072</v>
       </c>
       <c r="E14">
-        <v>0.06988660105349886</v>
+        <v>0.03220548987775196</v>
       </c>
       <c r="F14">
-        <v>2.758999708277571</v>
+        <v>2.663287660886979</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.146567861948938</v>
+        <v>2.325729134855095</v>
       </c>
       <c r="L14">
-        <v>0.2094043022798076</v>
+        <v>0.2159950370715222</v>
       </c>
       <c r="M14">
-        <v>0.3358162683029846</v>
+        <v>0.4733573181462916</v>
       </c>
       <c r="N14">
-        <v>3.745234055436669</v>
+        <v>2.401805326469258</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.59426509219611</v>
+        <v>2.512548492437361</v>
       </c>
       <c r="C15">
-        <v>0.0713678022483748</v>
+        <v>0.1999574049873161</v>
       </c>
       <c r="D15">
-        <v>0.156229991380691</v>
+        <v>0.07773219505350415</v>
       </c>
       <c r="E15">
-        <v>0.06988979754584967</v>
+        <v>0.03211601649841178</v>
       </c>
       <c r="F15">
-        <v>2.754908102541805</v>
+        <v>2.643209374432445</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.140314714856714</v>
+        <v>2.29885273411665</v>
       </c>
       <c r="L15">
-        <v>0.2090057494784787</v>
+        <v>0.2139395514491156</v>
       </c>
       <c r="M15">
-        <v>0.3347239035558474</v>
+        <v>0.4682772603179899</v>
       </c>
       <c r="N15">
-        <v>3.744841184867596</v>
+        <v>2.399067876256197</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.55885404540652</v>
+        <v>2.352878614948168</v>
       </c>
       <c r="C16">
-        <v>0.06783587003471325</v>
+        <v>0.1873903082306185</v>
       </c>
       <c r="D16">
-        <v>0.1564836733577142</v>
+        <v>0.07938681082187404</v>
       </c>
       <c r="E16">
-        <v>0.06991320618937458</v>
+        <v>0.03161435696335424</v>
       </c>
       <c r="F16">
-        <v>2.731788587368868</v>
+        <v>2.529760615758093</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.104662000445302</v>
+        <v>2.146085787917855</v>
       </c>
       <c r="L16">
-        <v>0.2067510478909327</v>
+        <v>0.2022782005574726</v>
       </c>
       <c r="M16">
-        <v>0.3285157762293451</v>
+        <v>0.4394231794099213</v>
       </c>
       <c r="N16">
-        <v>3.742823482351483</v>
+        <v>2.38436518211671</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537355068878242</v>
+        <v>2.256077554271371</v>
       </c>
       <c r="C17">
-        <v>0.0656639691968337</v>
+        <v>0.1797516553887419</v>
       </c>
       <c r="D17">
-        <v>0.1566402252233132</v>
+        <v>0.08040384070763906</v>
       </c>
       <c r="E17">
-        <v>0.06993211570713953</v>
+        <v>0.03131617164029876</v>
       </c>
       <c r="F17">
-        <v>2.717897792047296</v>
+        <v>2.46152885966923</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.082952005912006</v>
+        <v>2.053414800838283</v>
       </c>
       <c r="L17">
-        <v>0.2053939620204233</v>
+        <v>0.1952239659733266</v>
       </c>
       <c r="M17">
-        <v>0.3247534821263187</v>
+        <v>0.4219389251484316</v>
       </c>
       <c r="N17">
-        <v>3.741794017593776</v>
+        <v>2.37618885679602</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.525071918107585</v>
+        <v>2.200795721439931</v>
       </c>
       <c r="C18">
-        <v>0.06441282201663512</v>
+        <v>0.1753817736138359</v>
       </c>
       <c r="D18">
-        <v>0.1567306100855834</v>
+        <v>0.08098959169090048</v>
       </c>
       <c r="E18">
-        <v>0.06994466628778007</v>
+        <v>0.03114805785164165</v>
       </c>
       <c r="F18">
-        <v>2.710015489341146</v>
+        <v>2.422757744977048</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.07052436894395</v>
+        <v>2.000470984550873</v>
       </c>
       <c r="L18">
-        <v>0.2046229964754644</v>
+        <v>0.1912010708764313</v>
       </c>
       <c r="M18">
-        <v>0.3226064822985606</v>
+        <v>0.4119570989005865</v>
       </c>
       <c r="N18">
-        <v>3.741278384042687</v>
+        <v>2.371782541533008</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.520927219525504</v>
+        <v>2.182143670181745</v>
       </c>
       <c r="C19">
-        <v>0.06398887165376266</v>
+        <v>0.1739060560067571</v>
       </c>
       <c r="D19">
-        <v>0.1567612713076283</v>
+        <v>0.0811880565672336</v>
       </c>
       <c r="E19">
-        <v>0.06994920350917333</v>
+        <v>0.03109170933289285</v>
       </c>
       <c r="F19">
-        <v>2.70736509955735</v>
+        <v>2.409709380544342</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.066326775262411</v>
+        <v>1.982604195448943</v>
       </c>
       <c r="L19">
-        <v>0.2043636088723133</v>
+        <v>0.1898447235999186</v>
       </c>
       <c r="M19">
-        <v>0.3218824597948924</v>
+        <v>0.4085897875369255</v>
       </c>
       <c r="N19">
-        <v>3.741116929230259</v>
+        <v>2.370340336410734</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.539635133361628</v>
+        <v>2.266340648479002</v>
       </c>
       <c r="C20">
-        <v>0.06589537063551631</v>
+        <v>0.1805623014720226</v>
       </c>
       <c r="D20">
-        <v>0.1566235247845302</v>
+        <v>0.08029549643532441</v>
       </c>
       <c r="E20">
-        <v>0.06992992952792676</v>
+        <v>0.03134755999589522</v>
       </c>
       <c r="F20">
-        <v>2.719365382071416</v>
+        <v>2.468742581331966</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.085256924740634</v>
+        <v>2.063242143372975</v>
       </c>
       <c r="L20">
-        <v>0.2055374332066862</v>
+        <v>0.1959712831533835</v>
       </c>
       <c r="M20">
-        <v>0.3251522281362966</v>
+        <v>0.4237923173840485</v>
       </c>
       <c r="N20">
-        <v>3.741895688121872</v>
+        <v>2.377028260781685</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.603476977481137</v>
+        <v>2.554151361648678</v>
       </c>
       <c r="C21">
-        <v>0.07227809872782132</v>
+        <v>0.2032259034572803</v>
       </c>
       <c r="D21">
-        <v>0.1561647820377381</v>
+        <v>0.07730557139789695</v>
       </c>
       <c r="E21">
-        <v>0.06988515821152497</v>
+        <v>0.03224859532921442</v>
       </c>
       <c r="F21">
-        <v>2.760967546818762</v>
+        <v>2.672945316084991</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.149569630164279</v>
+        <v>2.338640238160821</v>
       </c>
       <c r="L21">
-        <v>0.2095959363887516</v>
+        <v>0.2169828620550476</v>
       </c>
       <c r="M21">
-        <v>0.3363410028262805</v>
+        <v>0.4757980931503738</v>
       </c>
       <c r="N21">
-        <v>3.745426583808296</v>
+        <v>2.403135936522233</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.645936567904585</v>
+        <v>2.746380977991464</v>
       </c>
       <c r="C22">
-        <v>0.07643296182924075</v>
+        <v>0.2183010179423803</v>
       </c>
       <c r="D22">
-        <v>0.1558679985000175</v>
+        <v>0.07535726354030725</v>
       </c>
       <c r="E22">
-        <v>0.06987075313214852</v>
+        <v>0.03287036778855956</v>
       </c>
       <c r="F22">
-        <v>2.78911465389325</v>
+        <v>2.811237043163146</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.192132167361478</v>
+        <v>2.522402566191175</v>
       </c>
       <c r="L22">
-        <v>0.2123337879645248</v>
+        <v>0.2310686969135247</v>
       </c>
       <c r="M22">
-        <v>0.3438047122479944</v>
+        <v>0.5105621767677633</v>
       </c>
       <c r="N22">
-        <v>3.7484169094609</v>
+        <v>2.423135155122736</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.623207775367632</v>
+        <v>2.643375427108651</v>
       </c>
       <c r="C23">
-        <v>0.07421692742076402</v>
+        <v>0.2102283591087541</v>
       </c>
       <c r="D23">
-        <v>0.1560261200400852</v>
+        <v>0.07639664033112048</v>
       </c>
       <c r="E23">
-        <v>0.06987708471121934</v>
+        <v>0.03253536943106106</v>
       </c>
       <c r="F23">
-        <v>2.774004283645354</v>
+        <v>2.736954321682248</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.169367118129486</v>
+        <v>2.423949705857609</v>
       </c>
       <c r="L23">
-        <v>0.2108647346633461</v>
+        <v>0.2235160953607789</v>
       </c>
       <c r="M23">
-        <v>0.3398073520782887</v>
+        <v>0.4919313019110803</v>
       </c>
       <c r="N23">
-        <v>3.746758374091371</v>
+        <v>2.412177241781848</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.538604076693446</v>
+        <v>2.261699556393069</v>
       </c>
       <c r="C24">
-        <v>0.06579076181574806</v>
+        <v>0.1801957414024997</v>
       </c>
       <c r="D24">
-        <v>0.1566310738649452</v>
+        <v>0.08034447560667335</v>
       </c>
       <c r="E24">
-        <v>0.0699309126685268</v>
+        <v>0.03133335901739898</v>
       </c>
       <c r="F24">
-        <v>2.718701561623433</v>
+        <v>2.465479843256261</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.084214703604516</v>
+        <v>2.058798167823795</v>
       </c>
       <c r="L24">
-        <v>0.2054725410986293</v>
+        <v>0.195633319764724</v>
       </c>
       <c r="M24">
-        <v>0.3249719052498961</v>
+        <v>0.422954181575804</v>
       </c>
       <c r="N24">
-        <v>3.741849485464172</v>
+        <v>2.37664785252646</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.450498390351697</v>
+        <v>1.864842190618191</v>
       </c>
       <c r="C25">
-        <v>0.05662774336221332</v>
+        <v>0.1486817671317482</v>
       </c>
       <c r="D25">
-        <v>0.1572966310018504</v>
+        <v>0.08463348112901148</v>
       </c>
       <c r="E25">
-        <v>0.07005301959849142</v>
+        <v>0.03016532237972847</v>
       </c>
       <c r="F25">
-        <v>2.663150046952779</v>
+        <v>2.190488216371435</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.994632822831278</v>
+        <v>1.678342163129543</v>
       </c>
       <c r="L25">
-        <v>0.2000230065989754</v>
+        <v>0.1668551563325877</v>
       </c>
       <c r="M25">
-        <v>0.3096182602905984</v>
+        <v>0.3513539017126703</v>
       </c>
       <c r="N25">
-        <v>3.739477753214175</v>
+        <v>2.34952304906767</v>
       </c>
       <c r="O25">
         <v>0</v>
